--- a/BOM_Board1_PCB1.xlsx
+++ b/BOM_Board1_PCB1.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_Board1_PCB1_2025-07-31" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_Board1_PCB1_2025-08-01" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="133">
   <si>
     <t>No.</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Supplier</t>
   </si>
   <si>
+    <t>LCSC Price</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>LCSC</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -107,9 +113,6 @@
   </si>
   <si>
     <t>SOD-523_L1.2-W0.8-LS1.6-BI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>UMW(友台半导体)</t>
@@ -783,16 +786,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -823,665 +826,728 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>NaN</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
         <v>55</v>
       </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
         <v>68</v>
       </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>NaN</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
         <v>80</v>
       </c>
-      <c r="E16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
         <v>86</v>
       </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>85</v>
-      </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
         <v>92</v>
       </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>91</v>
-      </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
         <v>98</v>
       </c>
-      <c r="E19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>97</v>
-      </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
         <v>104</v>
       </c>
-      <c r="E20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" t="s">
-        <v>103</v>
-      </c>
       <c r="H20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
         <v>110</v>
       </c>
-      <c r="E21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>109</v>
-      </c>
       <c r="H21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
         <v>116</v>
       </c>
-      <c r="E22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s">
-        <v>115</v>
-      </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
         <v>122</v>
       </c>
-      <c r="E23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>121</v>
-      </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
         <v>128</v>
       </c>
-      <c r="E24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>127</v>
-      </c>
       <c r="H24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
